--- a/crawling_data/SW교육/2018.01.01-2018.01.31+1_100.xlsx
+++ b/crawling_data/SW교육/2018.01.01-2018.01.31+1_100.xlsx
@@ -382,12 +382,12 @@
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0003151828</t>
   </si>
   <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=277&amp;aid=0004159084</t>
+  </si>
+  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0009815837</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=277&amp;aid=0004159084</t>
-  </si>
-  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=014&amp;aid=0003944743</t>
   </si>
   <si>
@@ -580,12 +580,12 @@
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=028&amp;aid=0002395829</t>
   </si>
   <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0008407344</t>
+  </si>
+  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0008407340</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0008407344</t>
-  </si>
-  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=014&amp;aid=0003949578</t>
   </si>
   <si>
@@ -1219,12 +1219,12 @@
     <t>부산교육청, SW교육 무선망 교실 구축사업 2월 완료</t>
   </si>
   <si>
+    <t>폴리텍대학, 신중년·경단녀 특화 교육 운영한다</t>
+  </si>
+  <si>
     <t>폴리텍대학, 신중년 직업교육 '시동'…올해 300명 모집</t>
   </si>
   <si>
-    <t>폴리텍대학, 신중년·경단녀 특화 교육 운영한다</t>
-  </si>
-  <si>
     <t>중년 특화 직업교육프로그램 생긴다</t>
   </si>
   <si>
@@ -1417,12 +1417,12 @@
     <t>방과후학교에서 기초 배워 코딩경진대회 대상 받은 노현서양</t>
   </si>
   <si>
+    <t>부산 놀이마루</t>
+  </si>
+  <si>
     <t>부산서 전국 첫 'SW교육지원센터' 개소</t>
   </si>
   <si>
-    <t>부산 놀이마루</t>
-  </si>
-  <si>
     <t>부산교육청, 전국 최초 'SW교육지원센터' 개소</t>
   </si>
   <si>
@@ -2971,12 +2971,12 @@
     <t>위 사진은 부산광역시 교육청 전경. © News1 DB(부산ㆍ경남=뉴스1) 조아현 기자 = 부산교육청은 소프트웨어(SW) 교육을 활성화하기 위해 오는 2월 말까지 '학교 무선망 교실 구축 사업'을 완료한다고 16일 밝혔다.이는 2018학년도부터 초·중·고등학교에 '2015 개정 교육과정' 적용으로 SW교육이 도입되고 사회, 과학, 영어 등 주요 교과목에 디지털교과서가 보급되기 때문이다. 시교육청은 모든 학교에 무선망 인프라를 구축하기 위해 지난 한 해동안 184개 초등학교와 중학교에 무선망 교실을 설치하는 등 대규모 예산을 투입하고 있다. 시교육청은 현재까지 무선망이 설치되지 않은 75개 고등학교를 대상으로 예산 3억 9000여만원을 편성해 오는 2월 말까지 공사를 완료할 계획이다. 이번 공사가 끝나면 부산지역 모든 초·중·고등학교가 무선망을 갖추게 된다.시교육청은 SW교육과 디지털 교과서 콘텐츠를 활용할 수 있도록 각급 학교에 스마트 패드도 지원할 방침이다.박현준 시교육청 인재개발과장은 "SW교육과 디지털 교과서 활용을 위해서는 정보 인프라 환경 구축이 필수적"이라며 "SW교육에 필요한 환경을 조성하는데 적극 지원할 계획"이라고 말했다.choah4586@▶ '평창2018' 관련 뉴스·포토 보기▶ 네이버메인에 ‘뉴스1채널’ 설정하기!▶ 여러분의 제보를 기다립니다.제보하기![© 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지]</t>
   </si>
   <si>
+    <t>[아시아경제 이창환 기자] 한국폴리텍대학(이하 폴리텍)은 신중년 인생2막과 경력단절여성을 위한 특화된 직업교육 프로그램을 운영한다고 16일 밝혔다.신중년 특화과정은 정부의 5060세대 재취업 지원을 위해 올해 처음으로 신설된 사업이다. 전국 4개 캠퍼스에서 7개 직종 300명을 모집한다. 2022년까지 1100명으로 교육인원도 지속적으로 확대할 계획이다.이 과정은 최근 인구 및 산업 환경 변화에 초점을 맞춰 요양보호와 신재생에너지분야 관련 직종 등으로 짜여졌다. 뿐만 아니라 특수용접, 자동차 복원 등 50~60대 취업수요가 많은 신중년 친화직종도 운영된다.3개월 단기과정으로 운영되고 있는 베이비부머훈련과 달리 6개월 장기 숙련훈련이 특징이다. 또한 밀도 있는 수업으로 1년 과정인 전문기술과정에 준하는 전문성도 높였다. 중장년 취업의 어려움을 반영해 핵심 기술?기능훈련 뿐만 아니라 창업 및 마케팅 교육도 포함됐다.취업연계 시스템은 한층 강화됐다. 중장년일자리희망센터와 연계해 수강자에게 직업교육뿐만 아니라 생애경력설계 및 맞춤형 취업지원 서비스를 제공한다.베이비부머과정은 31개 캠퍼스에서 41개 직종 1200명, 여성재취업과정은 27개 캠퍼스에서 39개 직종 950명을 모집한다.지난해 폴리텍 베이비부머과정과 여성재취업과정의 취업률은 각 각 51.4%와 52.4%를 달성했다. 교육생 2명 중 1명 이상이 일자리를 얻었다. 더불어 올해는 드론, SW코딩, 건축인테리어시공 등 5개 신규직종을 개발해 성별?연령별 직업교육을 더욱 세분화하는 한편 고부가가치 훈련체계도 갖췄다.폴리텍대학의 재취업은 경제적 부담이 없다는 점도 장점이다. 수업료 및 식비를 전액 지원한다. 월 출석률 80% 이상 이수 시 훈련수당과 교통비도 지급한다.  뿐만 아니라 지역에 관계없이 원하는 직종을 선택해 직업교육을 받을 수 있도록 희망자는 기숙사(일부 캠퍼스 제외)도 무료로 제공 받을 수 있다.이석행 한국폴리텍대학 이사장은 "베이비부머 세대의 은퇴가 가속화 되고, 생산가능인구의 급격한 감소로 노동시장이 받을 충격이 매우 클 것"이라며 "앞으로도 신중년과 경력단절여성의 재취업을 위한 직업교육을 강화해 사회안전망으로서의 역할을 더욱 충실히 해 나갈 것"이라고 밝혔다.이창환 기자 goldfish@asiae.co.kr▶ 양낙규의 '군사이야기'▶ #아시아경제 채널 구독 ▶ #아시아경제 페이스북&lt;ⓒ세계를 보는 창 경제를 보는 눈, 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">		만 50세 미취업자 대상…베이비부머·여성재취업 과정도(서울=연합뉴스) 김범수 기자 = 한국폴리텍대학은 올해부터 신(新) 중년에 특화된 직업교육 프로그램을 신설·운영한다고 16일 밝혔다.    신 중년 특화과정은 올해 서울 강서(시니어 헬스케어), 대구(전기설비기술·특수용접), 남인천(전기시스템제어·특수용접), 서울 정수(자동차복원·공조냉동) 등 4개 캠퍼스에서 총 300명을 대상으로 운영된다.    만 50세 이상의 미취업자면 지원할 수 있다. 캠퍼스별로 3월 26일까지 교육생을 모집한다. 폴리텍대는 신중년 특화과정 교육생 규모를 2022년까지 연간 1천100명으로 확대할 계획이다.     또 만 45세∼65세를 대상으로 하는 베이비부머 과정은 올해 인천·강릉·대전·광주·창원 등 31개 캠퍼스에 개설된다. 모집 대상은 1천200명이며, 교육 과정은 자동화 기계 유지보수·전기내선 공사·배관시공 등 41개 직종이다.    여성 재취업 과정은 서울 강서·춘천·목포·바이오 등 27개 캠퍼스에서 3D프린팅·SW코딩 지도 등 39개 직종과 관련해 교육이 진행된다. 임신·출산·육아 등을 이유로 경제활동을 중단했거나 경제활동 경험이 없는 교육생 950명을 선발한다.    지난해 폴리텍대 베이비부머 과정과 여성 재취업 과정의 취업률은 각각 51.4%와 52.4%에 달했다.    폴리텍대에서 운영하는 이번 교육 과정은 수업료·식비가 전액 지원된다. 일정 출석률을 채우면 훈련수당과 교통비가 제공되며, 일부 캠퍼스를 제외하고 기숙사도 무료로 제공받을 수 있다.     자세한 내용은 홈페이지(www.kopo.ac.kr)를 참조하면 된다.    이석행 폴리텍 이사장은 "앞으로도 신 중년과 경력단절 여성의 재취업을 위한 직업교육을 강화해 사회안전망으로서 역할을 더욱 충실히해나갈 것"이라고 말했다. bumsoo@yna.co.kr▶기사제보 및 문의▶기자와 1:1 채팅  ▶평창동계올림픽 영상 공모전</t>
   </si>
   <si>
-    <t>[아시아경제 이창환 기자] 한국폴리텍대학(이하 폴리텍)은 신중년 인생2막과 경력단절여성을 위한 특화된 직업교육 프로그램을 운영한다고 16일 밝혔다.신중년 특화과정은 정부의 5060세대 재취업 지원을 위해 올해 처음으로 신설된 사업이다. 전국 4개 캠퍼스에서 7개 직종 300명을 모집한다. 2022년까지 1100명으로 교육인원도 지속적으로 확대할 계획이다.이 과정은 최근 인구 및 산업 환경 변화에 초점을 맞춰 요양보호와 신재생에너지분야 관련 직종 등으로 짜여졌다. 뿐만 아니라 특수용접, 자동차 복원 등 50~60대 취업수요가 많은 신중년 친화직종도 운영된다.3개월 단기과정으로 운영되고 있는 베이비부머훈련과 달리 6개월 장기 숙련훈련이 특징이다. 또한 밀도 있는 수업으로 1년 과정인 전문기술과정에 준하는 전문성도 높였다. 중장년 취업의 어려움을 반영해 핵심 기술?기능훈련 뿐만 아니라 창업 및 마케팅 교육도 포함됐다.취업연계 시스템은 한층 강화됐다. 중장년일자리희망센터와 연계해 수강자에게 직업교육뿐만 아니라 생애경력설계 및 맞춤형 취업지원 서비스를 제공한다.베이비부머과정은 31개 캠퍼스에서 41개 직종 1200명, 여성재취업과정은 27개 캠퍼스에서 39개 직종 950명을 모집한다.지난해 폴리텍 베이비부머과정과 여성재취업과정의 취업률은 각 각 51.4%와 52.4%를 달성했다. 교육생 2명 중 1명 이상이 일자리를 얻었다. 더불어 올해는 드론, SW코딩, 건축인테리어시공 등 5개 신규직종을 개발해 성별?연령별 직업교육을 더욱 세분화하는 한편 고부가가치 훈련체계도 갖췄다.폴리텍대학의 재취업은 경제적 부담이 없다는 점도 장점이다. 수업료 및 식비를 전액 지원한다. 월 출석률 80% 이상 이수 시 훈련수당과 교통비도 지급한다.  뿐만 아니라 지역에 관계없이 원하는 직종을 선택해 직업교육을 받을 수 있도록 희망자는 기숙사(일부 캠퍼스 제외)도 무료로 제공 받을 수 있다.이석행 한국폴리텍대학 이사장은 "베이비부머 세대의 은퇴가 가속화 되고, 생산가능인구의 급격한 감소로 노동시장이 받을 충격이 매우 클 것"이라며 "앞으로도 신중년과 경력단절여성의 재취업을 위한 직업교육을 강화해 사회안전망으로서의 역할을 더욱 충실히 해 나갈 것"이라고 밝혔다.이창환 기자 goldfish@asiae.co.kr▶ 양낙규의 '군사이야기'▶ #아시아경제 채널 구독 ▶ #아시아경제 페이스북&lt;ⓒ세계를 보는 창 경제를 보는 눈, 아시아경제 무단전재 배포금지&gt;</t>
-  </si>
-  <si>
     <t>폴리텍대,신중년 특화과정 신설경력단절 여성 재취업 교육과정 확대        폴리텍대 신중년특화과정 모집 현황        캠퍼스 학과 직종 모집정원(단위:명, 2018학년도 개강월기준)               2월 3월 4월 7월   서울정수 자동차 자동차복원 25     25     그린에너지설비 공조냉동 25     25   서울강서 의료정보 시니어 헬스케어   25       남인천 특수용접 특수용접   25         스마트전기 전기시스템제어   25       대 구 스마트전기 전기설비기술     25       산업설비자동화 특수용접     25        (폴리텍대)       한국폴리텍대학(이하 폴리텍)은 5060세대와 경력단절 여성들을 위한 직업교육 프로그램을 운영한다고 16일 밝혔다.  폴리텍은 올해 정부의 5060세대 재취업 지원의 일환으로 신중년 특화과정 신설했다.  신중년특화과정은 6개월 장기 숙련훈련이 특징으로 최근 인구 및 산업 환경 변화에 초점을 맞춰 요양보호와 신재생에너지분야 관련 직종 등으로 짜여졌다. 특수용접, 자동차 복원 등 50~60대 취업수요가 많은 신중년 친화직종도 운영된다.  중장년 취업의 어려움을 반영해 핵심 기술·기능훈련 뿐만 아니라 창업 및 마케팅 교육도 포함됐다. 취업 연계 시스템도 강화됐다. 중장년일자리희망센터와 연계하여 수강자에게 직업교육뿐만 아니라 생애경력설계 및 맞춤형 취업지원 서비스를 제공한다.  폴리텍 관계자는 "신중년 특화과정은 올해 전국 4개 캠퍼스에서 7개 직종 300명을 모집하며 오는 2022년 1100명까지 교육 인원을 지속적으로 확대할 계획"이라고 밝혔다.  폴리텍은 올해 베이비부머과정과 여성재취업과정은 베이비부머 및 여성재취업과정 80개 직종에서 2150명을 모집한다. 드론, SW코딩, 건축인테리어시공 등 5개 신규 직종을 추가하는 한편 성별연령별 직업 교육을 더욱 세분화했다.  폴리텍대학 재취업 과정은 수업료 및 식비를 전액 지원하며 월 출석률 80% 이상 이수 시 훈련수당과 교통비도 지급한다.  이석행 한국폴리텍대학 이사장은 "베이비부머 세대의 은퇴가 가속화 되고, 생산가능인구의 급격한 감소로 노동시장이 받을 충격이 매우 클 것"이라며 "앞으로도 신중년과 경력단절여성의 재취업을 위한 직업교육을 강화해 사회안전망으로서의 역할을 더욱 충실히 해 나갈 것"이라고 밝혔다.   spring@fnnews.com 이보미 기자   ▶ 세상의 모든 골 때리는 이야기 'fn파스'▶ 속보이는 연예뉴스 fn스타  ※ 저작권자 ⓒ  파이낸셜뉴스. 무단 전재-재배포 금지</t>
   </si>
   <si>
@@ -3160,7 +3160,7 @@
     <t>블록기반 교육로봇 '쿠브' 출시"중국 2001년부터 조기교육중"국내 SW교육시장도 진출 타진[디지털타임스 김은 기자] 소니가 중국에서 '소프트웨어(SW) 교육 사업'을 시작한다. 국내 시장 진출도 고려하고 있다.22일 관련 업계에 따르면 소니의 자회사 소니 글로벌에듀케이션은 중국 학생들이 SW 코딩을 쉽게 배울 수 있도록 하는 로봇 제품 '쿠브'(KOOV)를 출시했다. 쿠브는 히라이 가즈오 소니 최고경영자(CEO) 주도로 사내 신사업 육성제도인 '시드 액셀러레이션 프로그램(SAP)'을 통해 개발한 블록 기반의 코딩 교육 학습 도구다. 지난해 일본에 처음 선보였고, 이번에 중국에 공식 출시하며 베이징과 상하이 지역의 초등학교와 중학교 등에 판매할 예정이다.쿠브는 자유롭게 만들 수 있는 블록으로 학생들이 직접 상상해서 로봇을 제작하고 조립하면서 프로그래밍 방법을 학습할 수 있도록 설계됐다. 블록과 본체, 모터, 센서 등으로 이뤄져 있으며, 컴퓨터와 태블릿PC를 이용해 로봇의 동작 프로그램을 입력하면 작동한다.소니가 특히 중국에 해외 SW 코딩 교육 사업 첫 발을 내딛는 것은 다른 나라들에 비해 중국이 상당히 일찍부터 코딩 조기교육을 시작하고 있기 때문이란 분석이다. 중국은 2001년부터 초·중교 코딩 교육을 시작했으며, 필수 과목으로 지정했다. 초등학교 3학년부터 6학년까지 70시간 이수, 중학교 1학년부터 3학년까지 70시간 코딩 과목을 이수해야 한다.  2003년부터는 고등학교에서도 본격적으로 코딩교육을 실시했다. 72시간을 이수해야 졸업할 수 있도록 했다.소니 관계자는 "소니는 최근 인공지능(AI) 기술 개발 소프트웨어를 무상으로 외부에 공개하며, 외부 업체와 AI 생태계 조성을 꾀하는 등 4차 산업혁명 관련 분야에서 존재감을 높이기 위한 사업을 펼치고 있다"며 "세계 기술시장에서 더 큰 부분을 차지하기 위한 일환으로 SW 코딩 산업에 대한 이해도와 학구열이 높은 중국에 쿠브를 선보이게 됐다"고 말했다.소니는 지난해부터 도쿄 긴자, 오사카 등 소니 스토어에서 쿠브 제품을 전시·판매하고 있다. 출시 이후 두 자릿수 이상의 성장률을 보이고 있는 것으로 전해졌다. 일본 역시 오는 2020년부터 초등학교에서 프로그래밍 교육 의무화를 추진하고 있다. 소니는 중국 시장 진출 후 우리나라에도 SW 교육 사업 진출을 타진하고 있다. 소니는 자회사 글로벌에듀케이션이 인공지능(AI)을 활용해 SW 코딩 교육 관련 데이터를 분석, 이 제품을 도입한 교육기관에 효율적인 교육 프로그램을 구성할 수 있도록 조언할 계획이다.  김은기자 silverkim@ 디지털타임스 홈페이지 바로가기 / SNS 바로가기디지털타임스 영문뉴스 바로가기 / 카드뉴스 바로가기김은</t>
   </si>
   <si>
-    <t xml:space="preserve">		 [한겨레] 세종대학교 신구 총장 인터뷰신구 세종대 총장이 지난 11일 오후 서울시 광진구 세종대 총장실에서 &lt;한겨레&gt;의 ‘함께하는 교육’과 인터뷰하고 있다. 강재훈 선임기자 khan@hani.co.kr   1940년 ‘애지정신, 기독교정신, 훈민정신’으로 개교한 세종대학교(이하 세종대)가 지난해 영국의 대학평가기관인 큐에스(QS·Quacquarelli Symonds)가 실시한 아시아대학 평가에서 상위 1% 안에 들었다. 평가 대상 대학 1만1800곳 가운데 88위에 오른 것으로 2012년에 250위였던 것과 비교하면 매우 의미 있는 성장이 아닐 수 없다. 이뿐만 아니라 영국의 대학평가 전문기관인 타임스 고등교육이 실시하는 2018 티에이치이(THE·Times Higher Education) 세계대학평가에서 국내 12위, 네덜란드 레이던대학이 발표한 2017 레이던 랭킹 세계대학평가에서 국내 6위 등의 성과도 거뒀다. 이 중심에는 2012년 7월에 취임해 올해로 임기 7년을 맞는 신구 총장이 있다. 지난 11일 오후 세종대 총장실에서 신구 총장을 만나 세종대의 비전과 변화 등에 관한 이야기를 들어봤다.  ―취임 이후 학교에 많은 변화가 있다고 들었다. 취임 당시보다 가장 많이 변한 것이 있다면?  “취임 당시 캠퍼스 모습과 지금을 비교하면 외국인 유학생 수에서 큰 차이가 난다. 그때는 500명 정도였는데 지금은 1800명이다. 세배 이상 늘어난 셈이다. 이는 대학 위상이 그만큼 높아졌다는 직접적인 증거라고 본다. 단순히 대학이 홍보를 많이 했기 때문이 아니라 국제적으로 객관적인 위상이 높아진 덕분이라고 생각한다.” 2012년 7월 취임해 올해 7년째 해외 대학 평가기관에서 좋은 성과 국제적 위상 높이는 변화 보여졸업까지 지도교수 밀착 진로지도 문·이과 벽 허물어 융합교육 실시‘서울총장포럼’ 회장직 맡으며 대학들 담 허물고 학점 교류하는 ‘공유대학’ 아이디어 제안하기도―실제 해외 객관적인 평가에서 결과가 좋게 나왔다. 나름의 노력이 있었을 텐데.  “어떻게 하면 대학 위상을 높일 수 있을까 고민했다. 그러다 세계적인 대학평가에서 승부를 걸어야겠다고 생각했다. 그들 평가기관에서 무엇을 가장 중시하는지를 먼저 봤다. 각 학교 교수들의 논문이 다른 연구자들에게 얼마나 인용되고 있는가를 보는 논문당 피인용 수가 가장 중요한 요소였다. 교수들의 승진이나 업적 평가와 인센티브 등에서 논문당 피인용 수를 기준으로 삼기로 했다. 그랬더니 논문 질이 점점 더 좋아졌고, 논문당 피인용 수도 급격히 증가했다. 지난해 큐에스의 아시아대학 논문당 피인용 수에서 51위에 올랐다. 논문의 질을 기초로 순위 매기는 2017 레이던 랭킹에서도 국내 6위였다.”   ―교수진의 연구 역량 부분에 신경을 썼다는 이야기인데.   “세계적으로 인정받는 연구 역량을 갖추도록 애를 많이 썼다. 해외 유명 과학자들을 초청해서 공동 연구를 추진하는 등 해외 교수들과의 교류를 활발히 하기 위해 노력하기도 했다. 또 해외 많은 대학들과 교류하며 우리 학생들을 해외에 많이 내보내는 노력도 해왔다.”  ―대학들이 4차 산업혁명 시대와 미래사회를 위해 준비하고 있다. 세종대는 어떤 준비를 하고 있나?  “일찌감치 이런 미래를 준비하고 있었다. 우리나라 대학으로는 처음으로 전교생 대상으로 코딩 교육을 했다. 2014년부터는 수시 합격자 전원을 대상으로 입학 전 6주 동안 코딩 교육을 하고 있다. 지금은 대부분의 대학이 코딩 교육을 하고 있는데 우린 한 단계 더 나아가 3학점이 아닌 6학점으로 심화된 교육을 한다. 인문학, 예체능 등 어떤 전공을 하건 간에 모든 학생들이 기본적으로 코딩 교육을 받아 자기 전공을 정보통신기술(ICT)과 융합할 수 있게 돕고 있다.”  ―4차 산업혁명과 관련한 학과를 개설하는 대학들도 많던데.  “4차 산업혁명 핵심 기술 요소인 인공지능(AI)과 사물인터넷(IoT), 데이터사이언스 등을 1학년 때부터 체계적으로 가르치기 위해 지난해 소프트웨어(SW)융합대학을 개설했다. 그 안에 지능기전공학부를 두고 이 시대에 맞는 창의적인 인재를 양성하는 중이다. 이 학부에서는 기계공학과 전자공학뿐 아니라 디자인까지도 다 배울 수 있다. 이 학부 학생들은 지도교수와 함께 프로젝트를 수행하고 결과물을 반드시 만들어내야 졸업할 수 있다. 소프트웨어융합대학 안에는 우리나라 최초로 만든 데이터사이언스학과를 비롯해 창의소프트학부, 컴퓨터공학과, 정보보호학과, 소프트웨어학과 등도 있다.”   ―대학가 최대 관심사는 취업이다. 재학생들의 취업을 돕기 위해 어떤 지원을 하고 있나?   “어떻게 하면 취업률을 높일 수 있을까 많이 고민한다. 찾은 방법은 딱 하나다. 사회가 필요로 하는 인재를 양성하는 것. 1학년에 입학하면 지도교수를 배정해 진로를 설계할 수 있게 하고 있다. 학생들은 졸업 때까지 지도교수로부터 밀착지도를 받는다. 또한 문·이과 구분 없이 융합교육도 한다. 실례로 ‘SW융합연계전공’은 엔터테인먼트 소프트웨어(ES), 글로벌 미디어 소프트웨어(GM), 소셜미디어 매니지먼트 소프트웨어(SM) 등 세가지로 나눠 교육한다. 이런 것들이 취업에서도 경쟁력을 갖게 한다고 본다.”  ―세종대 하면 학생들이 가장 주목하는 학과로 항공시스템공학과와 국방시스템공학과가 있는데.  “각각 우수한 조종장교와 항해장교 양성에 목적이 있다. 졸업생을 배출한 지 국방시스템공학과는 3년, 항공시스템공학과는 2년 됐다. 사실 우리 졸업생이 공군과 해군에서 어떤 평가를 받는지 궁금했다. 조종사의 경우 우리 대학 출신들이 임관 뒤 통과율이 50%가 넘었다고 한다. 이는 꽤 높은 통과율로 이들 학과가 성공적으로 안착했다고 볼 수 있다. 이들 학과는 우리나라 국방에도 기여하는 바가 크기 때문에 조종 시뮬레이터 구입에 4억원 지원과 함께 항해에 필요한 전기전자실습실 구축 등에도 지원을 아끼지 않을 것이다. 참고로 항공시스템공학과가 20명, 국방시스템공학과가 40명, 전원 장학생으로 선발하고 있다.”   ―학령인구 감소로 대학들이 구조개혁에 고민이 많다. 어떤 방안을 마련하고 있나?  “이는 인구 감소 탓에 어쩔 수 없이 고민해야 하는 부분이라고 본다. 대안 가운데 하나가 외국인 유학생을 많이 유치하는 것이다. 이를 위해 대학 위상을 높이려고 노력해왔다. 한편으로는 국제화도 외국인 유학생 유치도 성공하지 못한다면 세종대가 쇠퇴기로 들어설 수밖에 없다는 고민이 많았다. 또 하나의 돌파구로 ‘평생교육’에 대한 생각도 많이 한다. 교육부는 2015년 1주기 대학구조개혁평가에 이어 올해 2주기 평가를 통해 대학 정원을 감축할 계획을 밝혔다. 충분히 공감하고 필요성도 느끼지만 굳이 일부러 정원을 줄일 필요가 있을까 생각도 해보게 된다. 평가에서 하위 10%, 15% 내외 대학이라면 과감히 정리할 필요는 있지만 그렇지 않다면 굳이 정원을 감축할 필요가 있을까 싶다.”   ―기존 대학 인프라를 평생교육을 위해 쓸 수 있다는 건가?  “만일 학령인구 감소로 대학들이 학생을 다 채우지 못하면 남는 강의실이나 인프라, 그리고 교수들의 여력도 다른 목적으로 활용하면 되지 않을까. 그것은 평생교육 시장이 될 수도 있고, 직업교육 시장이 될 수도 있다. 무조건 감원보다 정부에서 대학들이 경쟁력을 높일 수 있도록 지원하고, 부족한 학생 수는 다른 쪽에서 채울 수 있도록 해주면 좋겠다. 특히 지역사회와 국가 발전에 기여할 수 있게 활로를 열어주었으면 한다.”  ―현재 서울총장포럼 회장으로 모임을 이끌고 있기도 하던데.  “서울 소재 32개 대학 총장들의 모임이다. 3년 전부터 활동을 시작했다. 현재 대학들은 재정적·사회적·국제적으로 매우 어려운 여건에 있다. 대학들이 어떤 길로 가야 하고, 어떤 방향으로 발전해가야 하는지 함께 길을 찾아보자는 뜻에서 출범했다. 서울 지역 대학들의 모임이라고 오해할 수 있는데 그렇지 않다. 전국 국공립, 사립대학도 서울총장포럼에 참여할 수 있다. 아직 지방 대학의 참여는 없지만 앞으로 함께할 것으로 기대한다.”   ―서울총장포럼에서 해온 활동들을 소개해 달라.  “총장들이 모여 대학의 현 상황에 대해 객관적으로 진단, 평가, 반성을 먼저 해봤다. 1년여 논의 과정을 통해 도출한 것이 바로 ‘공유대학’이다. 현재 우리나라에는 4년제 대학이 200여개 있다. 서울 지역에만 전문대학과 사이버대학까지 포함하면 57개다. 전세계적으로 하나의 도시에 57개 대학이 모여 있는 곳은 대한민국 서울이 유일하다. 서울은 지역적으로도 밀집돼 있고, 교통이 아주 잘 발달해 있다. 전철 등 대중교통이 잘 정비돼 있어 대학 간 이동 시간이 1시간 안팎이다. 이런 지리적 이점을 이용해 서울 지역 대학들의 인적·물적 자원을 공유하고 상생 모델을 만들어보자는 뜻에서 내가 먼저 아이디어를 내봤다.”  ―공유대학에 대해 좀더 구체적으로 설명해준다면.  “공유대학에서 제일 먼저 추진한 건 대학의 담을 허물고 대학 간 학점 교류를 하는 것이다. 이때 ‘어떤 특정 대학으로 몰리면 어떻게 할 것이냐’ 등 논란이 있었지만 학생이 원하는 공부를, 듣고 싶은 과목을 배울 수 있게 해주자는 결단을 내렸다. 현재 서울 지역 대학 간 학점 교류를 하고 있는데 활성화는 안 되고 있다. 개별 대학에서 수강신청을 일일이 해야 하는 등의 번거로움이 있다. 이런 문제를 해결하기 위해 서울 지역 대학을 묶어 수강신청을 하는 플랫폼을 만들기로 했다. 플랫폼을 통해 수강신청뿐만 아니라 학점 교류와 취업·창업·자격증 등과 관련 있는 다양한 강의 내용과 도서관, 연구시설, 기자재 등 모든 인적·물적 자원을 공유하기로 했다.”  ―이를 위해서는 재원이 필요할 텐데.  “지난해 2월 제8차 서울총장포럼 총회에 박원순 서울시장을 초청해 공유대학에 대한 실행계획을 발표하면서 공유대학 플랫폼은 대학생뿐만 아니라 시민들도 대학이 개설한 다양한 강의에 참여할 수 있다는 것을 알린 바 있다. 이후 서울시로부터 예산 10억원을 지원받았다. 현재 공유대학 플랫폼을 만드는 중인데 오는 7월께 완성되면 온라인상에서 대학생과 서울시민은 물론 국민 누구나 대학의 공개 강의를 들을 수 있게 될 것이다. 공유대학이 앞으로 더 활성화되기 위해서는 당분간은 서울시와 정부 부처로부터의 재정 지원이 더 필요하다. 그 일환으로 얼마 전 과학기술정보통신부로부터 콘텐츠 운영비로 1억원을 지원받았고, 앞으로 2억원을 더 지원받기로 했다.”  ―2018년에도 대학 발전을 위해 다양한 사업과 활동들을 추진할 텐데, 가장 역점을 두는 것이 있다면?  “대표적인 게 올해 8월 완공 예정인 1만6000평 규모의 이노베이션센터를 꼽을 수 있다. 우리 대학에서 가장 규모가 큰 건물로 소프트융합대학에서 주로 사용할 예정인데, 이 대학 학생들뿐 아니라 누구나 언제든지 들어가 작품이나 제품을 만들 수 있게 하려고 한다. 현대미술의 대표 아이콘이라고 불리는 앤디 워홀처럼 팩토리를 만들어 무인자동차나 드론, 소프트웨어 앱 등을 방학 때도 직접 기획·제작할 수 있게 지원하려고 한다.” 유성룡 &lt;함께하는 교육&gt; 기획위원 livingriver@nate.com   ▶ 한겨레 절친이 되어 주세요! [신문구독] [사람과 동물을 잇다 : 애니멀피플] [카카오톡][ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+    <t xml:space="preserve">		 [한겨레] 세종대학교 신구 총장 인터뷰신구 세종대 총장이 지난 11일 오후 서울시 광진구 세종대 총장실에서 &lt;한겨레&gt;의 ‘함께하는 교육’과 인터뷰하고 있다. 강재훈 선임기자 khan@hani.co.kr 1940년 ‘애지정신, 기독교정신, 훈민정신’으로 개교한 세종대학교(이하 세종대)가 지난해 영국의 대학평가기관인 큐에스(QS·Quacquarelli Symonds)가 실시한 아시아대학 평가에서 상위 1% 안에 들었다. 평가 대상 대학 1만1800곳 가운데 88위에 오른 것으로 2012년에 250위였던 것과 비교하면 매우 의미 있는 성장이 아닐 수 없다. 이뿐만 아니라 영국의 대학평가 전문기관인 타임스 고등교육이 실시하는 2018 티에이치이(THE·Times Higher Education) 세계대학평가에서 국내 12위, 네덜란드 레이던대학이 발표한 2017 레이던 랭킹 세계대학평가에서 국내 6위 등의 성과도 거뒀다. 이 중심에는 2012년 7월에 취임해 올해로 임기 7년을 맞는 신구 총장이 있다. 지난 11일 오후 세종대 총장실에서 신구 총장을 만나 세종대의 비전과 변화 등에 관한 이야기를 들어봤다.  ―취임 이후 학교에 많은 변화가 있다고 들었다. 취임 당시보다 가장 많이 변한 것이 있다면?  “취임 당시 캠퍼스 모습과 지금을 비교하면 외국인 유학생 수에서 큰 차이가 난다. 그때는 500명 정도였는데 지금은 1800명이다. 세배 이상 늘어난 셈이다. 이는 대학 위상이 그만큼 높아졌다는 직접적인 증거라고 본다. 단순히 대학이 홍보를 많이 했기 때문이 아니라 국제적으로 객관적인 위상이 높아진 덕분이라고 생각한다.” 2012년 7월 취임해 올해 7년째 해외 대학 평가기관에서 좋은 성과 국제적 위상 높이는 변화 보여졸업까지 지도교수 밀착 진로지도 문·이과 벽 허물어 융합교육 실시‘서울총장포럼’ 회장직 맡으며 대학들 담 허물고 학점 교류하는 ‘공유대학’ 아이디어 제안하기도―실제 해외 객관적인 평가에서 결과가 좋게 나왔다. 나름의 노력이 있었을 텐데.  “어떻게 하면 대학 위상을 높일 수 있을까 고민했다. 그러다 세계적인 대학평가에서 승부를 걸어야겠다고 생각했다. 그들 평가기관에서 무엇을 가장 중시하는지를 먼저 봤다. 각 학교 교수들의 논문이 다른 연구자들에게 얼마나 인용되고 있는가를 보는 논문당 피인용 수가 가장 중요한 요소였다. 교수들의 승진이나 업적 평가와 인센티브 등에서 논문당 피인용 수를 기준으로 삼기로 했다. 그랬더니 논문 질이 점점 더 좋아졌고, 논문당 피인용 수도 급격히 증가했다. 지난해 큐에스의 아시아대학 논문당 피인용 수에서 51위에 올랐다. 논문의 질을 기초로 순위 매기는 2017 레이던 랭킹에서도 국내 6위였다.”   ―교수진의 연구 역량 부분에 신경을 썼다는 이야기인데.   “세계적으로 인정받는 연구 역량을 갖추도록 애를 많이 썼다. 해외 유명 과학자들을 초청해서 공동 연구를 추진하는 등 해외 교수들과의 교류를 활발히 하기 위해 노력하기도 했다. 또 해외 많은 대학들과 교류하며 우리 학생들을 해외에 많이 내보내는 노력도 해왔다.”  ―대학들이 4차 산업혁명 시대와 미래사회를 위해 준비하고 있다. 세종대는 어떤 준비를 하고 있나?  “일찌감치 이런 미래를 준비하고 있었다. 우리나라 대학으로는 처음으로 전교생 대상으로 코딩 교육을 했다. 2014년부터는 수시 합격자 전원을 대상으로 입학 전 6주 동안 코딩 교육을 하고 있다. 지금은 대부분의 대학이 코딩 교육을 하고 있는데 우린 한 단계 더 나아가 3학점이 아닌 6학점으로 심화된 교육을 한다. 인문학, 예체능 등 어떤 전공을 하건 간에 모든 학생들이 기본적으로 코딩 교육을 받아 자기 전공을 정보통신기술(ICT)과 융합할 수 있게 돕고 있다.”  ―4차 산업혁명과 관련한 학과를 개설하는 대학들도 많던데.  “4차 산업혁명 핵심 기술 요소인 인공지능(AI)과 사물인터넷(IoT), 데이터사이언스 등을 1학년 때부터 체계적으로 가르치기 위해 지난해 소프트웨어(SW)융합대학을 개설했다. 그 안에 지능기전공학부를 두고 이 시대에 맞는 창의적인 인재를 양성하는 중이다. 이 학부에서는 기계공학과 전자공학뿐 아니라 디자인까지도 다 배울 수 있다. 이 학부 학생들은 지도교수와 함께 프로젝트를 수행하고 결과물을 반드시 만들어내야 졸업할 수 있다. 소프트웨어융합대학 안에는 우리나라 최초로 만든 데이터사이언스학과를 비롯해 창의소프트학부, 컴퓨터공학과, 정보보호학과, 소프트웨어학과 등도 있다.”   ―대학가 최대 관심사는 취업이다. 재학생들의 취업을 돕기 위해 어떤 지원을 하고 있나?   “어떻게 하면 취업률을 높일 수 있을까 많이 고민한다. 찾은 방법은 딱 하나다. 사회가 필요로 하는 인재를 양성하는 것. 1학년에 입학하면 지도교수를 배정해 진로를 설계할 수 있게 하고 있다. 학생들은 졸업 때까지 지도교수로부터 밀착지도를 받는다. 또한 문·이과 구분 없이 융합교육도 한다. 실례로 ‘SW융합연계전공’은 엔터테인먼트 소프트웨어(ES), 글로벌 미디어 소프트웨어(GM), 소셜미디어 매니지먼트 소프트웨어(SM) 등 세가지로 나눠 교육한다. 이런 것들이 취업에서도 경쟁력을 갖게 한다고 본다.”  ―세종대 하면 학생들이 가장 주목하는 학과로 항공시스템공학과와 국방시스템공학과가 있는데.  “각각 우수한 조종장교와 항해장교 양성에 목적이 있다. 졸업생을 배출한 지 국방시스템공학과는 3년, 항공시스템공학과는 2년 됐다. 사실 우리 졸업생이 공군과 해군에서 어떤 평가를 받는지 궁금했다. 조종사의 경우 우리 대학 출신들이 임관 뒤 통과율이 50%가 넘었다고 한다. 이는 꽤 높은 통과율로 이들 학과가 성공적으로 안착했다고 볼 수 있다. 이들 학과는 우리나라 국방에도 기여하는 바가 크기 때문에 조종 시뮬레이터 구입에 4억원 지원과 함께 항해에 필요한 전기전자실습실 구축 등에도 지원을 아끼지 않을 것이다. 참고로 항공시스템공학과가 20명, 국방시스템공학과가 40명, 전원 장학생으로 선발하고 있다.”   ―학령인구 감소로 대학들이 구조개혁에 고민이 많다. 어떤 방안을 마련하고 있나?  “이는 인구 감소 탓에 어쩔 수 없이 고민해야 하는 부분이라고 본다. 대안 가운데 하나가 외국인 유학생을 많이 유치하는 것이다. 이를 위해 대학 위상을 높이려고 노력해왔다. 한편으로는 국제화도 외국인 유학생 유치도 성공하지 못한다면 세종대가 쇠퇴기로 들어설 수밖에 없다는 고민이 많았다. 또 하나의 돌파구로 ‘평생교육’에 대한 생각도 많이 한다. 교육부는 2015년 1주기 대학구조개혁평가에 이어 올해 2주기 평가를 통해 대학 정원을 감축할 계획을 밝혔다. 충분히 공감하고 필요성도 느끼지만 굳이 일부러 정원을 줄일 필요가 있을까 생각도 해보게 된다. 평가에서 하위 10%, 15% 내외 대학이라면 과감히 정리할 필요는 있지만 그렇지 않다면 굳이 정원을 감축할 필요가 있을까 싶다.”   ―기존 대학 인프라를 평생교육을 위해 쓸 수 있다는 건가?  “만일 학령인구 감소로 대학들이 학생을 다 채우지 못하면 남는 강의실이나 인프라, 그리고 교수들의 여력도 다른 목적으로 활용하면 되지 않을까. 그것은 평생교육 시장이 될 수도 있고, 직업교육 시장이 될 수도 있다. 무조건 감원보다 정부에서 대학들이 경쟁력을 높일 수 있도록 지원하고, 부족한 학생 수는 다른 쪽에서 채울 수 있도록 해주면 좋겠다. 특히 지역사회와 국가 발전에 기여할 수 있게 활로를 열어주었으면 한다.”  ―현재 서울총장포럼 회장으로 모임을 이끌고 있기도 하던데.  “서울 소재 32개 대학 총장들의 모임이다. 3년 전부터 활동을 시작했다. 현재 대학들은 재정적·사회적·국제적으로 매우 어려운 여건에 있다. 대학들이 어떤 길로 가야 하고, 어떤 방향으로 발전해가야 하는지 함께 길을 찾아보자는 뜻에서 출범했다. 서울 지역 대학들의 모임이라고 오해할 수 있는데 그렇지 않다. 전국 국공립, 사립대학도 서울총장포럼에 참여할 수 있다. 아직 지방 대학의 참여는 없지만 앞으로 함께할 것으로 기대한다.”   ―서울총장포럼에서 해온 활동들을 소개해 달라.  “총장들이 모여 대학의 현 상황에 대해 객관적으로 진단, 평가, 반성을 먼저 해봤다. 1년여 논의 과정을 통해 도출한 것이 바로 ‘공유대학’이다. 현재 우리나라에는 4년제 대학이 200여개 있다. 서울 지역에만 전문대학과 사이버대학까지 포함하면 57개다. 전세계적으로 하나의 도시에 57개 대학이 모여 있는 곳은 대한민국 서울이 유일하다. 서울은 지역적으로도 밀집돼 있고, 교통이 아주 잘 발달해 있다. 전철 등 대중교통이 잘 정비돼 있어 대학 간 이동 시간이 1시간 안팎이다. 이런 지리적 이점을 이용해 서울 지역 대학들의 인적·물적 자원을 공유하고 상생 모델을 만들어보자는 뜻에서 내가 먼저 아이디어를 내봤다.”  ―공유대학에 대해 좀더 구체적으로 설명해준다면.  “공유대학에서 제일 먼저 추진한 건 대학의 담을 허물고 대학 간 학점 교류를 하는 것이다. 이때 ‘어떤 특정 대학으로 몰리면 어떻게 할 것이냐’ 등 논란이 있었지만 학생이 원하는 공부를, 듣고 싶은 과목을 배울 수 있게 해주자는 결단을 내렸다. 현재 서울 지역 대학 간 학점 교류를 하고 있는데 활성화는 안 되고 있다. 개별 대학에서 수강신청을 일일이 해야 하는 등의 번거로움이 있다. 이런 문제를 해결하기 위해 서울 지역 대학을 묶어 수강신청을 하는 플랫폼을 만들기로 했다. 플랫폼을 통해 수강신청뿐만 아니라 학점 교류와 취업·창업·자격증 등과 관련 있는 다양한 강의 내용과 도서관, 연구시설, 기자재 등 모든 인적·물적 자원을 공유하기로 했다.”  ―이를 위해서는 재원이 필요할 텐데.  “지난해 2월 제8차 서울총장포럼 총회에 박원순 서울시장을 초청해 공유대학에 대한 실행계획을 발표하면서 공유대학 플랫폼은 대학생뿐만 아니라 시민들도 대학이 개설한 다양한 강의에 참여할 수 있다는 것을 알린 바 있다. 이후 서울시로부터 예산 10억원을 지원받았다. 현재 공유대학 플랫폼을 만드는 중인데 오는 7월께 완성되면 온라인상에서 대학생과 서울시민은 물론 국민 누구나 대학의 공개 강의를 들을 수 있게 될 것이다. 공유대학이 앞으로 더 활성화되기 위해서는 당분간은 서울시와 정부 부처로부터의 재정 지원이 더 필요하다. 그 일환으로 얼마 전 과학기술정보통신부로부터 콘텐츠 운영비로 1억원을 지원받았고, 앞으로 2억원을 더 지원받기로 했다.”  ―2018년에도 대학 발전을 위해 다양한 사업과 활동들을 추진할 텐데, 가장 역점을 두는 것이 있다면?  “대표적인 게 올해 8월 완공 예정인 1만6000평 규모의 이노베이션센터를 꼽을 수 있다. 우리 대학에서 가장 규모가 큰 건물로 소프트융합대학에서 주로 사용할 예정인데, 이 대학 학생들뿐 아니라 누구나 언제든지 들어가 작품이나 제품을 만들 수 있게 하려고 한다. 현대미술의 대표 아이콘이라고 불리는 앤디 워홀처럼 팩토리를 만들어 무인자동차나 드론, 소프트웨어 앱 등을 방학 때도 직접 기획·제작할 수 있게 지원하려고 한다.” 유성룡 &lt;함께하는 교육&gt; 기획위원 livingriver@nate.com   ▶ 한겨레 절친이 되어 주세요! [신문구독] [사람과 동물을 잇다 : 애니멀피플] [카카오톡][ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
   </si>
   <si>
     <t xml:space="preserve">		 [한겨레] 코딩 교육 허와 실코딩은 주입·암기식 교육과 상극인데‘코딩 교육=개발 툴 익히기’로 오해기능 숙달보다 콘텐츠 아이디어 중요개발자들 “등수 매기는 순간 역효과”코딩은 수단이지 목적으로 봐선 안돼아이들 흥미·재미 존중, 즐기게 해야교육부 “수능에 코딩 반영 계획 없어”서울 서대문구 연희동 서연중학교 학생들이 엘지씨엔에스(LG CNS)가 중학생들을 상대로 실시하는 ‘코딩 지니어스’ 실습을 하고 있다. 엘지씨엔에스 제공  “이 나라의 모든 사람은 컴퓨터 프로그래밍을 배워야 한다. 왜냐하면 그건 여러분에게 생각하는 법을 가르쳐주기 때문이다.”(Everybody in this country should learn how to program a computer, because it teaches you how to think)  스티브 잡스의 이 말은 우리나라 어린이 코딩 학원 상당수 누리집에 걸려 있다. “아이들을 위한 컴퓨터 교육은 빠를수록 좋다”(마크 저커버그), “컴퓨터 프로그래밍은 창의력을 길러준다”(빌 게이츠)도 단골이다. “비디오 게임을 사지만 말고 직접 만들어라! 앱을 다운받지만 말고 직접 디자인해봐라!”고 한 버락 오바마 전 미국 대통령도 등장한다. 스티브 잡스는 미래 사회에서는 인문적 지식과 이공계통 지식의 융합이 중요하다고 강조했다. 코딩 교육은 지식 융복합을 할 수 있는 좋은 수단이기도 하다. &lt;한겨레&gt; 자료사진   교육부가 초중등학교에서 코딩 교육을 강화하면서 학부모들은 급해졌다. 미래 사회에 필요한 창의력을 키워주겠다는 게 목표이지만 모든 게 입시로 귀결되는 한국 현실에서는 왜곡되기에 십상이다. 사교육 업체들은 학부모들의 불안감을 더욱 자극한다. 결국 교육부는 지난해 12월 소프트웨어 관련 학원 단속을 벌여 허위 과장?과대 광고 등을 한 업체 135곳을 적발하기도 했다.  실제 코딩을 하고 있는 소프트웨어 개발자들은 이런 사태를 어떻게 볼까?  “영어 교육 10년 넘게 받아도 우리나라 사람 영어로 대화 잘 못한다. 코딩도 비슷하다. 소프트웨어 개발 툴(tool) 기능을 많이 알아도 소용없다. 직접 프로그램을 짜봐야 한다.”  스마트폰 게임 업체 ‘모하 게임스’의 방윤석 기술이사는 이렇게 말했다. 초등학교 2학년 때부터 게임을 좋아해 프로그래밍을 시작한 그는 26년째 ‘코딩 중’이다.  이 회사 이종하 시이오(CEO)도 한마디 거들었다. 그는 “엑셀이나 파워포인트 기능을 숙달하는 것이 중요하다. 한데 더 중요한 건 엑셀이나 파워포인트에 담긴 콘텐츠의 질”이라며 “시이오 입장에서 볼 때 코딩 능력은 출중하지만 아이디어가 다소 떨어지는 인력과 코딩 능력은 약간 부족해도 아이디어가 풍부한 인력이 있다면 후자를 뽑겠다”고 했다.  시(C)·지더블유(GW)베이직·자바·파이선 등 소프트웨어 툴 또는 개발언어는 사진 편집하는 포토샵과 같은 거다. 이전에 포토샵에 숙달한 사람은 타인의 부러움을 샀지만 요즘에는 웹사이트에 사진을 올리면 자동으로 보정해주는 곳도 있다. 소프트웨어 개발 툴도 마찬가지다. 성능이 좋아져 전에는 이쪽 분야 은어로 ‘노가다’를 해야 했던 기능이 지금은 버튼 하나만 누르면 구현된다.  “2명이 만나면 서로 총격전이 벌어지는 장면, 이전에는 거리·색상·형태 변화 등 변수를 고려해 알고리즘을 짜야 했다. 한데 요즘 ‘유니티’라는 툴에서 ‘둘이 만나면 총격전’ 이렇게 설정하면 만들어준다.”  방 기술이사는 기술이 발전하면 앞으로 ‘자동 코딩기’가 나올 수 있다고 본다.  그렇다면 왜 코딩 교육이 필요할까?  “구글·페이스북·애플 등의 회사를 보면 개발자가 창업하거나 초기부터 개발자와 함께한 경우가 많다. 코딩을 잘 알면 창의력이 자극될 수 있고 아이디어가 구현 가능한지 더 정확하게 가늠할 수 있다. 컴퓨터 세계의 작동 원리를 아는 건 상식이다. 이제는 누구나 코딩을 해야 하는 시대, 그리고 할 수 있는 시대가 된 것이다.”  이렇게 말한 김석준씨는 포르투갈어를 전공하고 졸업 뒤 사업을 했다가 접고 31살 때부터 코딩을 시작했다. 그는 현재 아이티(IT) 업체 스트리미에서 개발자로 일하고 있다.  그는 코딩 교육 관련해서 가장 피해야 할 것으로 주입식·암기식 교육을 꼽았다.  “어린 학생들 상대로 코딩 교육을 몇 번 해봤다. 일부는 국·영·수 학원에 강제로 온 것 같은 분위기였다. 코딩의 핵심은 창의력인데 나는 ‘창의력은 심심해야 생긴다’고 본다. 나도 알고리즘 안 풀리면 게임 하면서 머리를 식힌다.”  김씨는 “프로그램 개발도 코딩하는 사람, 아이디어 제공하는 사람, 사업성 따져보는 사람 등 여러 명의 협업”이라며 “학교 코딩 교육도 개발하는 아이, 아이디어 제공하는 아이 등 여럿이 함께하는 협력 작업으로 진행하면 좋겠다”고 주문했다.  ‘흥미’와 ‘재미’가 코딩의 첫걸음이다. 지난해 11월 한국생산성본부가 주최한 제1회 소프트웨어(SW)코딩경진대회에서 대상을 받은 광주광역시 송원초등학교 6학년 노현서양은 게임을 즐기다 직접 만들어 보게 됐다. 노양의 어머니 김미영씨는 “아이들이 게임 좋아하는 건 당연하다”며 “월~금요일은 스마트폰 금지, 그 대신 주말은 마음대로 사용하도록 했다. 아이의 흥미와 재능을 장려했다”고 말했다. 한데 우리나라 학부모들은 게임을 ‘호환마마’보다도 무서워한다.  코딩 교육과 관련해 중요한 게 학부모들의 인식이다.   서울 대치동의 코딩학원 ‘플레이코딩아카데미’ 심중원 대표는 “입시를 얘기하면 수강생 안 받는다고 학부모한테 말씀드린다”고 강조했다. “사교육 업계에 있는데 입시와 관련짓지 않으면서 경영이 되느냐?”는 질문에 그는 “깨어 있는 학부모들은 설명하면 무슨 뜻인지 안다”고 부연했다.  “코딩은 암기가 아니다. 코딩은 수단이지 목적이 아니다.”  그는 삼성디스플레이에서 연구원으로 일하다 2016년 8월 창업했다. 코딩 교육을 위한 공개형 프로그램을 개발하고 사업을 확대하는 게 목적이다. 심 대표는 “제가 소프트웨어 개발을 해봤기 때문에 코딩이 주입식·암기식 또는 입시와 연관해서는 안 된다는 것을 잘 안다”며 “한국에서 코딩 교육이 점수·등수 매기는 식으로 가는 순간 교육 효과는 별로 없다”고 단언했다. 강원도 인제군 인제읍 귀둔초등학교 학생이 화상 교육을 통해 소프트웨어 전문가로부터 코딩을 배우고 있다. 교육부 제공   교육부도 이 점을 알고 있다. 교육부 융합교육팀 장원영 연구사는 “소프트웨어 교육 관련해서는 중학교까지는 100% 수행평가가 가능하다”며 “현재 대부분의 학교가 70~80%는 수행평가, 나머지는 지필 평가인데 100% 수행평가를 하는 학교가 점점 많아지고 있다”고 설명했다. 그는 “수능에 코딩 관련 문제를 넣어야 한다는 얘기가 있었지만 현재 교육부는 수능에 포함할 계획이 없다”고 강조했다.  생산성본부 소프트웨어코딩경진대회에서 심사위원을 했던 송복민 교육 콘텐츠 개발자는 “코딩 교육을 C나 GW베이직 같은 개발 툴의 기능을 배우는 것으로 협소하게 아는 학부모가 많다”며 “학부모들을 상대로 코딩 교육의 의미를 먼저 교육할 필요가 있다고 생각한다”고 밝혔다.  그는 “다행히 소프트웨어코딩경진대회에 나온 초등학생들의 창의성이 기대보다 훨씬 높았다”며 “스마트 냉장고를 제어하는 프로그램을 짜라는 요구에 유통기간이 지나거나 저장 물품이 떨어지면 자동으로 인터넷 쇼핑몰과 연결해 물건을 주문하는 알고리즘을 짠 학생이 있었다”고 소개했다.  김태경 &lt;함께하는 교육&gt; 기자 ktk7000@hanedui.com  ▶ 한겨레 절친이 되어 주세요! [신문구독] [사람과 동물을 잇다 : 애니멀피플] [카카오톡][ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
@@ -3169,12 +3169,12 @@
     <t xml:space="preserve">		 [한겨레]  지난해 12월 한국생산성본부 주최 제1회 소프트웨어코딩경진대회 시상식 모습. 왼쪽이 대상을 받은 노현서양, 오른쪽은 홍순직 회장. 한국생산성본부 제공  “게임을 좋아했는데 만들어진 것만 즐기지 말고 제가 직접 제작해봐야겠다고 생각했습니다. 그래서 코딩에 재미를 붙였고 이번에 대상을 받게 됐습니다.”  지난해 11월 한국생산성본부가 주최한 ‘제1회 대한민국 소프트웨어(SW)코딩경진대회’에서 대상을 받은 노현서양(광주광역시 송원초등학교 6학년)은 이렇게 말했다. 경진대회 주제는 ‘스마트 냉장고를 가동하는 프로그램 제작’이었다.  “코딩은 방과후 학교에서 공부했어요. 한번에 1시간씩 1주일에 네번 정도 합니다. ‘엔트리’라고 초보 학생들도 코딩을 배울 수 있게 하는 프로그램이 있는데 이걸로 공부했어요. 여기에 기본 코드가 들어 있는데 어떻게 수정해볼까 고민을 많이 했습니다. 엔트리 관련 누리집(playentry.org) 강좌도 보고 다른 사람이 올려놓은 프로그램을 참고해 연구도 했어요.” 한국생산성본부 주최 제1회 소프트웨어코딩경진대회에서 대상을 받은 노현서양. 한국생산성본부 제공   광주광역시에는 아직 초중등 학생들을 겨냥한 코딩 학원이 없으니 노양은 사교육의 힘을 빌리지 않고 스스로 공부한 셈이다. 노양은 초등학교 1학년 때 타자를 배우면서 그때 처음 컴퓨터를 만져봤다. 컴퓨터에 흥미가 생겨 2학년 때부터 컴퓨터부 활동을 했다.  노양은 계산기, 알람시계, 창문을 자동 제어하는 프로그램 등 총 100개 정도 프로그램을 제작했다. 한데 상당수가 게임이다.  “‘지오메트리대시’라는 게임이 있어요. 이걸 따라서 만들어봤습니다. 똑같이 모방할 수는 없었고 기능은 비슷하게 했어요. 게임의 원래 난이도는 15단계인데 저는 3단계로 했습니다. 하루에 30분씩 총 1주일 걸렸습니다.”  요즘은 ‘라이더’라는 스마트폰 게임도 제작 중이다. 한데 이 게임은 조금 어렵다. 중력을 고려해야 하기 때문이다.  여기에서 왜 코딩이 창의력·융복합 지식과 관련이 있는지 알 수 있다. 중력에 대한 좀 더 상세한 개념은 중학교 가서야 배운다. 그러나 중력과 관련이 있는 게임을 만든다면 관련 자료도 찾아보면서 더 많은 걸 스스로 배울 수 있다. 게임을 자꾸 만들다 보니 노양은 이제는 어떤 게임, 소프트웨어를 보면 ‘감’이 오는 경우가 많다. 장기적으로 ‘댄싱라인’이라는 게임을 만드는 것을 목표로 하고 있다.  노양에게 코딩에 흥미를 갖고 잘하려면 어떻게 해야 할지 도움말을 부탁했다.  “만약 억지로 저한테 숙제를 내주면서 코딩하라고 했다면 싫어했을 것 같아요. 저는 게임을 좋아해서 코딩에 관심이 생긴 거니까 선생님이 만들어보라는 것만 만들지 말고 자기가 좋아하는 걸 만들어보면 흥미가 생길 것 같습니다.”  김태경 &lt;함께하는 교육&gt; 기자       ▶ 한겨레 절친이 되어 주세요! [신문구독] [사람과 동물을 잇다 : 애니멀피플] [카카오톡][ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
   </si>
   <si>
+    <t>【부산=뉴시스】 하경민 기자 = 부산시교육청은 오는 25일 오전 10시30분 부산진구 서면 놀이마루 4층에 마련한 부산SW교육지원센터 개소식을 갖고 본격적인 운영을 시작한다고 23일 밝혔다. 2018.01.23. (사진=부산시교육청 제공)yulnetphoto@newsis.com[사진 영상 제보받습니다] 공감언론 뉴시스가 독자 여러분의 소중한 제보를 기다립니다. 뉴스 가치나 화제성이 있다고 판단되는 사진 또는 영상을 뉴시스 사진영상부(n-photo@newsis.com, 02-721-7470)로 보내주시면 적극 반영하겠습니다.&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt;</t>
+  </si>
+  <si>
     <t>【부산=뉴시스】 하경민 기자 = 부산시교육청은 오는 25일 오전 10시30분 부산진구 서면 놀이마루 4층에 마련한 부산SW교육지원센터 개소식을 갖고 본격적인 운영을 시작한다고 23일 밝혔다. 2018.01.23. (사진=부산시교육청 제공)yulnetphoto@newsis.com【부산=뉴시스】 하경민 기자 = 4차 산업혁명 시대에 대비해 학생들에게 창의력과 컴퓨팅 사고력을 키워주기 위한 SW(소프트웨어)교육 거점센터인 '부산SW교육지원센터'가 전국에서 처음으로 부산에서 문을 연다.부산시교육청은 오는 25일 오전 10시30분 부산진구 서면 놀이마루 4층에 마련한 부산SW교육지원센터 개소식을 갖고 본격적인 운영을 시작한다고 23일 밝혔다.시교육청은 SW교육지원센터를 구축하기 위해 지난해 7월부터 청소년복합문화센터인 놀이마루(옛 중앙중학교) 4층 333㎡(100평)에 대한 새 단장을 진행하고 있다. SW교육지원센터는 코딩존, 피지컬컴퓨팅존, AR·VR존 등 3개 체험존을 비롯해 첨단 미래교실(연수실), 복합공간, 교사실 등 모두 6개실을 갖췄다.이 중 코딩존은 교육용 프로그래밍 언어를 활용한 다양한 SW교육 활동을, 피지컬컴퓨팅존은 각종 센서보드와 로봇 등을 활용한 SW교육 활동을, AR·VR존은 다양한 교구를 활용한 가상현실과 증강현실을 각각 체험할 수 있도록 꾸몄다.또 첨단 미래교실은 첨단 IT 장비를 갖추고 학생 교육과 교사 연수 등 다양한 교육활동을 할 수 있는 미래교육 지향형 교실로, 복합공간은 SW교육관련 세미나, 포럼, 대규모 강의 등을 할 수 있는 공간으로 각각 조성했다.이 센터는 학교 SW교육 활성화를 위해 학생 진로체험교실과 교사 연수 등 다양한 프로그램을 운영한다. 또 학생 동아리와 교사 연구회를 지원하는 한편, 교구를 대여하고 콘텐츠도 제공한다.더불어 SW교육 선도교사와 정책학교 운영교사 50명(초등 30명, 중등 20명)으로 지원단을 구성해 운영한다. 이들 지원단은 시교육청 SW교육 연수, 학교로 찾아가는 SW교육 연수, 단위학교 지원 연수, 학생 및 학부모 체험교육 등을 지원한다.박현준 인재개발과장은 "미래사회를 살아갈 학생들에게 필요한 핵심역량 가운데 지식정보처리와 창의적사고 역량을 키우기 위해서는 SW교육이 매우 중요하다"며 "앞으로 부산SW교육지원센터가 학교 SW교육 지원의 중추적인 역할을 하게 될 것이다"고 말했다. yulnetphoto@newsis.com▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기 ▶ 뉴시스 SNS [페이스북] [트위터]&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt;</t>
   </si>
   <si>
-    <t>【부산=뉴시스】 하경민 기자 = 부산시교육청은 오는 25일 오전 10시30분 부산진구 서면 놀이마루 4층에 마련한 부산SW교육지원센터 개소식을 갖고 본격적인 운영을 시작한다고 23일 밝혔다. 2018.01.23. (사진=부산시교육청 제공)yulnetphoto@newsis.com[사진 영상 제보받습니다] 공감언론 뉴시스가 독자 여러분의 소중한 제보를 기다립니다. 뉴스 가치나 화제성이 있다고 판단되는 사진 또는 영상을 뉴시스 사진영상부(n-photo@newsis.com, 02-721-7470)로 보내주시면 적극 반영하겠습니다.&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">      부산SW교육지원센터가 설치된 놀이마루 전경    4차 산업혁명 시대에 대비해 학생들에게 창의력과 컴퓨팅 사고력을 키워주기 위한 소프트웨어(SW)교육 거점센터인 '부산SW교육지원센터'가 전국에서 처음으로 문을 연다.  부산시교육청은 오는 25일 부산진구 서면 놀이마루 4층에 마련한 부산SW교육지원센터에서 개소식을 갖고 본격 운영에 들어간다고 23일 밝혔다.  부산교육청은 SW교육지원센터를 구축하기 위해 지난해 7월부터 청소년복합문화센터인 놀이마루(옛 중앙중학교) 4층 333㎡에 리모델링 작업을 해왔다.  SW교육지원센터는 코딩존, 피지컬컴퓨팅존, AR·VR존 등 3개 체험존을 비롯해 첨단 미래교실(연수실), 복합공간, 교사실 등 모두 6개실을 갖췄다.  코딩존은 교육용 프로그래밍 언어를 활용한 다양한 SW교육 활동을, 피지컬컴퓨팅존은 각종 센서보드와 로봇 등을 활용한 SW교육 활동을, AR·VR존은 다양한 교구를 활용한 가상현실과 증강현실을 체험할 수 있도록 구성했다.  첨단 미래교실은 첨단 IT 장비를 갖추고 학생 교육과 교사 연수 등 다양한 교육활동을 할 수 있는 미래교육 지향형 교실로, 복합공간은 SW교육관련 세미나, 포럼, 대규모 강의 등을 할 수 있는 공간으로 각각 조성했다.  이 센터는 학교 SW교육 활성화를 위해 학생 진로체험교실과 교사 연수 등 다양한 프로그램을 운영한다. 또 학생 동아리와 교사 연구회를 지원하는 한편, 교구를 대여하고 콘텐츠도 제공한다.  부산교육청은 센터 개소와 함께 SW교육 선도교사와 정책학교 운영교사 50명(초등 30명, 중등 20명)으로 지원단을 구성, 운영한다. 이들 지원단은 시교육청 SW교육 연수, 학교로 찾아가는 SW교육 연수, 단위학교 지원 연수, 학생 및 학부모 체험교육 등을 지원한다.  부산교육청 관계자는 "미래사회를 살아갈 학생들에게 필요한 핵심역량 가운데 지식정보처리와 창의적사고 역량을 키우기 위해선 SW교육이 중요하다"며 "앞으로 부산SW교육지원센터가 학교 SW교육 지원의 중추적인 역할을 하게 될 것"이라고 말했다.   bsk730@fnnews.com 권병석 기자   ▶ 세상의 모든 골 때리는 이야기 'fn파스'▶ 속보이는 연예뉴스 fn스타  ※ 저작권자 ⓒ  파이낸셜뉴스. 무단 전재-재배포 금지</t>
   </si>
   <si>
@@ -3226,7 +3226,7 @@
     <t>과기정통부, 올해 150억 투입상반기 산업 발전 계획 발표과학기술정보통신부는 24일 정부 업무보고에서 상반기 내 블록체인 산업발전 기본계획과 확산 전략을 수립해 발표하겠다고 밝혔다.특히 올해 블록체인 산업 활성화를 위해 작년 50억원에 불과했던 예산을 150억원으로 확대하고 기술개발, 시범사업, 인력양성 등에 집중하기로 했다. 사물인터넷(IoT) 센서 데이터, 대용량 의료정보, 음악·영화 등 다양한 산업 발전에 적용할 수 있는 블록체인 핵심기술을 개발하고, 물류·유통, 전자투표, 저작권관리 등 실증 시범사업도 추진한다. 또 블록체인 아카데미, 오픈포럼 등을 통해 전문 인력을 양성하고, 연구센터를 한 곳 지정해 석·박사급 고급인력도 양성하기로 했다.인공지능(AI) 기술 경쟁력 확보와 신서비스 창출에도 힘을 모은다. 법률, 치안 등 다양한 영역에 AI를 적용할 수 있는 핵심 요소기술 개발에 521억원을 투입하고, 대학과 중소기업에 AI 학습용 데이터와 고성능 컴퓨팅 등을 원스톱으로 제공하는 AI 오픈 이노베이션 허브를 구축한다. 또 대학연구센터를 중심으로 AI 전문인력을 본격적으로 양성하기로 했다. 상반기 내 자율차, 스마트시티 등 신규 AI 서비스 모델도 선보인다. 이를 통해 국내 34개에 불과한 AI 전문기업을 45개로 늘린다는 계획이다.데이터 전문기업과 인력 양성에도 집중한다. 데이터 분야 스타트업을 발굴·육성하는 디비스타즈를 통해 올해 12개 신규 데이터 스타트업을 지원한다. 60개 중소기업의 데이터 활용을 지원하고, 국내 유명 엑셀러레이터와 투자사를 연계한 지원도 모색한다. 청년을 대상으로 한 데이터 교육과 일자리 연계를 통해 400명의 전문인력을 양성하고, 재직자 대상 빅데이터 분석교육과 대학ICT 연구센터를 선정해 데이터 과학자도 양성할 계획이다. SW 인재를 키우기 위한 SW중심대학은 작년 20개에서 올해 25개로 확대하고, 공공기관의 클라우드 도입률을 작년 20%에서 올해 40%로 높이기 위해 상반기 내 클라우드 확산 전략을 내놓기로 했다. 디지털콘텐츠 서비스 활성화를 위해 가상·증강현실(VR·AR) 종합지원 거점은 작년 1개소에서 올해 서울 2개소를 포함한 전국 6개소로 늘리기로 했다.  허우영기자 yenny@                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              ▶허우영기자의 블로그 : http://blog.dt.co.kr/blog/?mb_id=run디지털타임스 홈페이지 바로가기 / SNS 바로가기디지털타임스 영문뉴스 바로가기 / 카드뉴스 바로가기허우영</t>
   </si>
   <si>
-    <t xml:space="preserve">		해동상에 김성조·양세훈 교수…29일 시상식(서울=연합뉴스) 신선미 기자 = 한국공학한림원은 제14회 공학한림원 일진상 수상자로 송하중 경희대 행정학과 교수(66·기술정책 기여 부문), 안경현 서울대 화학생물공학부 교수(55·산학협력 증진 부문)를 선정했다.     송 교수는 우리나라 과학기술 훈·포장 제도를 구축하는 데 핵심적인 역할을 했다는 평가를 받았다.    안 교수는 교수 30여 명 및 20여 개 기업이 참여하는 '고분자나노융합소재가공기술센터'를 설립, 산학협력으로 소재가공 산업 생태계를 복원하는 데 기여했다.     공학한림원은 제13회 해동상 수상자로는 김성조 중앙대 컴퓨터공학부 교수(65·공학교육혁신 부문), 양세훈 서울대 객원교수(64·공학기술문화확산 부문)을 선정했다.     김 교수는 '공학교육인증제'를 국내 대학에 정착시키고 정부의 IT전공역량강화사업, SW(소프트웨어)중심대학사업 등을 기획한 공로로 상을 받는다.    양 교수는 코딩 도서를 저술하고 SW 관련 교육동영상을 제작해 무료로 배포하는 등 청소년을 위한 교육콘텐츠 개발에 선구적 역할을 했다.     일진상은 일진과학기술문화재단이 후원하는 상으로 기술정책 진흥, 산학협력 증진에 공헌한 인물을 발굴해 시상한다.     해동상은 해동과학문화재단이 후원하는 상으로 공학교육 혁신, 공학기술문화 확산에 기여한 인물에게 준다.    수상자는 상패와 함께 각각 상금 2천500만 원을 받는다. 시상식은 29일 중구 신라호텔에서 열린다.  제14회 일진상 수상자(윗줄 왼쪽부터) 송하중 경희대 교수, 안경현 서울대 교수. 제13회 해동상 수상자(아랫줄 왼쪽부터) 김성조 중앙대 교수, 양세훈 서울대 객원교수. [한국공학한림원 제공]    sun@yna.co.kr(계속)▶기사제보 및 문의▶기자와 1:1 채팅  ▶평창동계올림픽 영상 공모전</t>
+    <t xml:space="preserve">		해동상에 김성조·양세훈 교수…29일 시상식(서울=연합뉴스) 신선미 기자 = 한국공학한림원은 제14회 공학한림원 일진상 수상자로 송하중 경희대 행정학과 교수(66·기술정책 기여 부문), 안경현 서울대 화학생물공학부 교수(55·산학협력 증진 부문)를 선정했다.     송 교수는 우리나라 과학기술 훈·포장 제도를 구축하는 데 핵심적인 역할을 했다는 평가를 받았다.    안 교수는 교수 30여 명 및 20여 개 기업이 참여하는 '고분자나노융합소재가공기술센터'를 설립, 산학협력으로 소재가공 산업 생태계를 복원하는 데 기여했다.     공학한림원은 제13회 해동상 수상자로는 김성조 중앙대 컴퓨터공학부 교수(65·공학교육혁신 부문), 양세훈 서울대 객원교수(64·공학기술문화확산 부문)을 선정했다.     김 교수는 '공학교육인증제'를 국내 대학에 정착시키고 정부의 IT전공역량강화사업, SW(소프트웨어)중심대학사업 등을 기획한 공로로 상을 받는다.    양 교수는 코딩 도서를 저술하고 SW 관련 교육동영상을 제작해 무료로 배포하는 등 청소년을 위한 교육콘텐츠 개발에 선구적 역할을 했다.     일진상은 일진과학기술문화재단이 후원하는 상으로 기술정책 진흥, 산학협력 증진에 공헌한 인물을 발굴해 시상한다.     해동상은 해동과학문화재단이 후원하는 상으로 공학교육 혁신, 공학기술문화 확산에 기여한 인물에게 준다.    수상자는 상패와 함께 각각 상금 2천500만 원을 받는다. 시상식은 29일 중구 신라호텔에서 열린다.  제14회 일진상 수상자(윗줄 왼쪽부터) 송하중 경희대 교수, 안경현 서울대 교수. 제13회 해동상 수상자(아랫줄 왼쪽부터) 김성조 중앙대 교수, 양세훈 서울대 객원교수. [한국공학한림원 제공] sun@yna.co.kr(계속)▶기사제보 및 문의▶기자와 1:1 채팅  ▶평창동계올림픽 영상 공모전</t>
   </si>
   <si>
     <t xml:space="preserve">		석 달간 진행된 연명의료시범 사업 결과 연명의료 중단 선택을 한 환자 47명이 사망했다. 내달 4일부터 제도가 본격 시행된다.보건복지부는 '호스피스·완화의료 및 임종과정에 있는 환자 연명의료 결정에 관한 법률(연명의료결정법)'에 따른 시범사업을 종료하고, 2월 4일부터 연명의료결정제도를 시행한다고 24일 밝혔다. 연명의료결정제도는 임종과정에 있는 환자를 대상으로 스스로 혹은 가족 전원합의, 의사 2인 확인에 따라 연명의료 중단을 결정한다. 환자는 사전연명의료의향서, 연명의료계획서로 연명의료 중단 의사를 표시한다.보건복지부는 연명의료결정제도 시행에 앞서 작년 10월 16일부터 올해 1월 15일까지 시범사업을 진행했다. 국립연명의료관리기관으로 선정된 국가생명윤리정책원을 중심으로 13개 기관이 참여했다.연명의료계획서 작성 통계(자료: 보건복지부)시범사업 추진 결과 사전연명의료의향서 9336건, 연명의료계획서 107건이 보고됐다. 사전연명의료의향서는 여성 6333건, 남성이 3003건으로 나타났다. 연명의료계획서는 총 107건이 작성됐다. 성별로는 남성이 60건, 여성이 47건이다. 연령대는 50~70대가 86건으로 전체 80%를 차지했다.연명의료중단결정 이행은 총 54건이 이뤄졌다. 연명의료계획서로 이행이 27건, 환자가족 2인 이상 진술에 의한 이행 23건, 환자가족 전원 합의 이행 4건으로 나타났다. 성별로는 여성 28건, 남성 26건이다. 60대가 16건으로 가장 많았다. 전체 이행 환자 중 47명이 사망했다.시범사업을 거치면서 발굴한 건의사항을 개선·반영한다. 복지부는 사전연명의료의향서 등록기관 지정 시 지역 안배를 고려한다. 국립연명의료관리기관 교육을 받은 사람만 사전연명의료의향서 상담을 하며, 수가 등 의료기관 재정 지원을 추진한다. 국립연명의료관리기관에 통보의무가 없는 서식도 연명의료 정보처리시스템에서 일원화한다.연명의료 대상시술을 심폐소생술, 인공호흡기 착용, 혈액투석, 항암제투여로 보다 확대한다. 연명의료계획서 작성 대상도 기존 말기암 환자와 임종과정 환자에서 수개월 내 임종이 예측되는 대상으로 늘린다. 무연고자나 가족이 있더라도 교류가 없는 경우 대리인에 의한 연명의료 중단 허용은 대상에 포함하지 않는다.제도 시행에 따른 인프라 확충을 추진한다. 내달 4일부터 연명의료정보처리시스템을 운영한다. 관련 제도를 총괄적으로 관리하고, 누구나 본인이 작성한 사전연명의료의향서와 연명의료계획서를 조회한다.권덕철 복지부 차관은 “2월 4일 연명의료결정제도가 시행되면 임종과정에 있는 환자 자기결정이 존중되고 임종기 의료가 집착적 치료에서 돌봄으로 전환될 것”이라면서 “제도 정립에 다소간 시간이 소요될 것으로 예상되나, 관계 기관 간 협조체계를 유지해 빠르게 안착되도록 할 것”이라고 말했다.[전자신문 CIOBIZ] 정용철 의료/SW 전문기자 jungyc@etnews.com▶ 전자신문 데이터 인사이트 마케팅 컨퍼런스▶ 전자신문 채널 구독 이벤트 가즈아~!▶ 전자신문 바로가기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
@@ -3412,7 +3412,7 @@
     <t>지난달 오픈소스를 활용해서 공격하는 랜섬웨어 '보텍스(Vortex)'와 '버그웨어(BUGWARE)'가 발견됐다. 피해자 파일을 암호화하기 위해 오픈소스 레파지토리를 활용했다. 지난해 11월에는 한국인으로 의심되는 제작자가 해외 교육용으로 공개된 오픈소스 랜섬웨어를 이용, 또 다른 랜섬웨어를 만들었다. 오픈소스 개방성이 새로운 형태의 위협으로 떠올랐다. 보안업계는 오픈소스 환경 보안과 관련해 다음과 같은 측면에 주목해야 한다.첫째 기업 오픈소스 협력 프로젝트로 기존의 보안 환경을 혁신할 수 있다. 오픈소스는 기존에 어렵던 신속한 제품 개발과 혁신을 가능케 했다. 문제도 함께 발생했다. 몇 가지 주목 받는 소프트웨어(SW)에는 엄청난 관심이 몰렸다. SW 버그에 의한 피해가 심각한 수준으로 커졌다. 많은 대기업이 오픈소스 SW를 이용한다. 그러나 지금까지 발견된 취약점에 보안업계가 대비하지 못했다.주목할 선례가 있다. 리눅스 재단은 주요 오픈소스 프로젝트의 협력과 보안 강화를 위해 지난해 6월 비영리단체 CII를 설립했다. '오픈 SSL'의 심각한 보안 결함인 하트블리드(HeartBleed)의 취약점 발견이 계기다. CII에는 세계 일류 기술 기업이 참여, 오픈소스 보안 환경을 개선한다.둘째 기업의 사회 공헌 활동 영역으로 오픈소스를 활용, 실제 사용자에게 혜택을 돌려준다. 기업은 오픈소스를 SW 개발에 활용하면서 혜택을 받는다. 한 SW 기업에 따르면 애플리케이션(앱) 가운데 96%가 오픈소스를 사용한다. 페이스북도 초기 개발자가 오픈소스 기술이던 리눅스, 아파치 서버, 마이 SQL 등을 활용해 만들었다. 제임스 피어스 페이스북 개발총괄 임원은 기업이 이런 오픈소스 기술에서 얻은 혜택을 다시 사회에 돌려주는 도덕 의무가 있다고 언급했다.CII는 프로젝트 범위 안에서 사이버 보안 이슈를 스스로 확인하고 해결한다. 단지 버그를 고치고 코드를 관리하는 것뿐만 아니라 SW 커뮤니티가 최선의 방법으로 개발하게끔 돕는 '배지' 프로그램을 운영한다. 프로젝트에 참가하는 기업은 실제 사용자에게 큰 영향력을 미친다. 사용자는 일류 기업 전문가의 개발 교육을 지원받는다.셋째 보안 업계는 오픈소스를 활용해 클라우드·사물인터넷(IoT) 환경으로 대표되는 4차 산업혁명 시대의 보안에 대비할 수 있다. 오픈소스 SW가 적용되면서 클라우드 서비스와 앱, IoT 기기 수가 빠르게 증가한다. 오픈소스 전문가 확보는 미래 보안 환경에 대비한 보안 업계의 필수 사항이다. 기업은 오픈소스 프로젝트에 투자하면서 핵심 인프라 유지보수를 지원하는, 세계 최고의 SW 사이버 보안 전문가를 얻는다.오픈소스 SW는 이미 산업 분야 전반에 활용된다. 그럼에도 기업 대비는 미흡하다. 한 SW 관리 업체 보고서에 따르면 상용 SW와 IoT에 사용되는 모든 코드의 절반 정도가 오픈소스다. 사용 기업 가운데 오픈소스 관련 정책을 준비한 조직은 37%에 불과하다. IoT 등 신기술이 제조업 위주의 산업 현장에 적용되면서 이전에 예상하지 못한 재해 위험도 커진다. 오픈소스 규정 준수 등 분야의 전문가 육성 및 확보가 과제로 떠오른다.보안업계는 오픈소스 환경을 적극 활용하기 위해 협력해야 한다. 아무리 뛰어난 전문가가 지원하는 기업이라 해도 실시간 발생하는 보안 문제를 완벽하게 대비한다고 자신할 수 없다. 방대한 영역에서 사용하는 오픈소스 SW 보안을 위해 알려진 취약점을 없애고, 보안업계와 사용자가 공동 목표로 협력해야 한다.김기태 탈레스 e시큐리티 영업이사 KeeTae.kim@thales-esecurity.com▶ 전자신문 데이터 인사이트 마케팅 컨퍼런스▶ 전자신문 바로가기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
   </si>
   <si>
-    <t xml:space="preserve">		취업 취약계층, 실업자에 재정 지원 일자리 11만개 제공(제주=연합뉴스) 김호천 기자 = 제주에서 앞으로 5년 동안 수만 개의 '좋은 일자리'가 제공될 전망이다.    제주도는 30일 올해부터 2022년까지 매년 5천개씩 총 2만5천개의 좋은 일자리를 창출하는 '제주 일자리 정책 5년' 로드맵을 발표했다.    '도민의 삶을 바꾸는 더 나은 일자리' 만들기를 목표로 한 로드맵에서는 일자리 인프라 구축, 공공·민간 일자리 창출, 일자리 질 개선, 맞춤형 일자리 지원 등 5대 분야 8대 중점과제 70개 실천과제를 선정했다.    일자리 인프라 구축 분야에서는 일자리 중심 도정 운영시스템 구축과 고용서비스 및 인적자원 공급시스템 혁신을 추진한다.    도정 정책의 수립·집행·평가 등 전 단계를 일자리 중심으로 개편하고, 예산지원 체계 등을 일자리 관점에서 재설계해 일자리 효과에 따라 차등 지원한다. 제주형 고용영향평가제도를 도입하고, 제주 실정에 맞는 일자리 통계를 개발한다.    공공 고용서비스 인프라를 확충하고, 제주지역인적자원개발위원회 기능을 강화해 도내 전체 인력 양성 훈련 및 일자리 사업을 컨트롤한다. 이를 위해 실업급여 등을 지급하는 고용센터의 업무 기능을 구직자 취업 지원 중심으로 개편하고, 읍·면·동 행정복지센터에서 일자리센터(창구)를 운영한다.    기업과 연계한 선고용, 후 교육훈련 시스템인 '청년뱅크재단'을 설립하는 등 기업의 수요와 환경 변화에 유연하게 대응하는 인적자원 공급체계를 구축한다. ICT·SW 융합 인재와 청년 무역 전문가 양성 과정을 개설하고, 신재생에너지와 말 산업 전문가, 문화예술 전문 인력 등을 양성한다.    공공 일자리 창출 분야에서는 5대 역점 프로젝트, 축산 분뇨, 악취, 소방, 사회복지 등 현장 민생 분야 공무원 1천176명과 사회서비스 인력 840명을 충원한다. 공공기관 간접고용 근로자 600명을 직접 고용으로 전환하고, 취업 취약계층과 청·장년 실업자 등의 고용 안정을 위해 재정 지원 일자리 사업을 통해 11만 명을 지원한다.    민간 일자리 창출을 위해 청정 헬스 푸드, 지능형 관광콘텐츠, 스마트 그리드 등 제주 3대 주력 산업과 뷰티, 향장품, 에너지 신산업 등 경제협력권 산업을 육성한다. '제주산학융합지구'를 조성해 현장 중심의 교육과정을 개발해 전문 인력을 양성한다. 농공단지 규모를 확대해 미래 일자리 창출 클러스터로 변모시켜 나간다.    사회적 경제 기업의 금융 접근성을 높이기 위해 보증 지원 한도를 확대하고, 공공기관의 사회적 경제제품 우선 구매 등을 지원한다.    일자리의 질을 개선하기 위해 사회적 경제 전문 인력 양성, 민관 협력체계 구축, 사회적 경제 진출 분야를 확대하고 육성한다. 노동 존중 사회를 조성하기 위해 제주형 노동정책 기본계획 수립, 노사민정협의회 기능을 강화한다.    맞춤형 일자리 지원 사업으로는 청년의 취업부터 정착까지 지원하는 일하는 '제주 청년 일자리 3종 시리즈'를 전국 처음으로 시행한다. 청년을 신규 채용한 기업에 월 50만∼70만원의 취업 지원금과 보금자리 지원금 30만원을 각각 지원하는 제도다. 청년 취업자가 월 10만원씩 내면 사업주와 도가 각각 15만원, 25만원을 지원하는 월 50만원짜리 5년 재형저축도 포함된다.    김현민 도 경제통상일자리국장은 "향후 5년간의 로드맵을 실행하기 위해 올해 제주형 노동정책 기본계획을 수립한다"며 "제주 일자리창출위원회와 전문가 등의 의견을 수렴해 만든 로드맵을 차질없이 수행해 일자리가 있어 행복한 제주를 만들어 나가겠다"고 다짐했다.    khc@yna.co.kr▶기사제보 및 문의▶기자와 1:1 채팅  ▶평창동계올림픽 영상 공모전</t>
+    <t xml:space="preserve">		취업 취약계층, 실업자에 재정 지원 일자리 11만개 제공(제주=연합뉴스) 김호천 기자 = 제주에서 앞으로 5년 동안 수만 개의 '좋은 일자리'가 제공될 전망이다.    제주도는 30일 올해부터 2022년까지 매년 5천개씩 총 2만5천개의 좋은 일자리를 창출하는 '제주 일자리 정책 5년' 로드맵을 발표했다.    '도민의 삶을 바꾸는 더 나은 일자리' 만들기를 목표로 한 로드맵에서는 일자리 인프라 구축, 공공·민간 일자리 창출, 일자리 질 개선, 맞춤형 일자리 지원 등 5대 분야 8대 중점과제 70개 실천과제를 선정했다.    일자리 인프라 구축 분야에서는 일자리 중심 도정 운영시스템 구축과 고용서비스 및 인적자원 공급시스템 혁신을 추진한다.    도정 정책의 수립·집행·평가 등 전 단계를 일자리 중심으로 개편하고, 예산지원 체계 등을 일자리 관점에서 재설계해 일자리 효과에 따라 차등 지원한다. 제주형 고용영향평가제도를 도입하고, 제주 실정에 맞는 일자리 통계를 개발한다.    공공 고용서비스 인프라를 확충하고, 제주지역인적자원개발위원회 기능을 강화해 도내 전체 인력 양성 훈련 및 일자리 사업을 컨트롤한다. 이를 위해 실업급여 등을 지급하는 고용센터의 업무 기능을 구직자 취업 지원 중심으로 개편하고, 읍·면·동 행정복지센터에서 일자리센터(창구)를 운영한다.    기업과 연계한 선고용, 후 교육훈련 시스템인 '청년뱅크재단'을 설립하는 등 기업의 수요와 환경 변화에 유연하게 대응하는 인적자원 공급체계를 구축한다. ICT·SW 융합 인재와 청년 무역 전문가 양성 과정을 개설하고, 신재생에너지와 말 산업 전문가, 문화예술 전문 인력 등을 양성한다.    공공 일자리 창출 분야에서는 5대 역점 프로젝트, 축산 분뇨, 악취, 소방, 사회복지 등 현장 민생 분야 공무원 1천176명과 사회서비스 인력 840명을 충원한다. 공공기관 간접고용 근로자 600명을 직접 고용으로 전환하고, 취업 취약계층과 청·장년 실업자 등의 고용 안정을 위해 재정 지원 일자리 사업을 통해 11만 명을 지원한다.    민간 일자리 창출을 위해 청정 헬스 푸드, 지능형 관광콘텐츠, 스마트 그리드 등 제주 3대 주력 산업과 뷰티, 향장품, 에너지 신산업 등 경제협력권 산업을 육성한다. '제주산학융합지구'를 조성해 현장 중심의 교육과정을 개발해 전문 인력을 양성한다. 농공단지 규모를 확대해 미래 일자리 창출 클러스터로 변모시켜 나간다.    사회적 경제 기업의 금융 접근성을 높이기 위해 보증 지원 한도를 확대하고, 공공기관의 사회적 경제제품 우선 구매 등을 지원한다.    일자리의 질을 개선하기 위해 사회적 경제 전문 인력 양성, 민관 협력체계 구축, 사회적 경제 진출 분야를 확대하고 육성한다. 노동 존중 사회를 조성하기 위해 제주형 노동정책 기본계획 수립, 노사민정협의회 기능을 강화한다.    맞춤형 일자리 지원 사업으로는 청년의 취업부터 정착까지 지원하는 일하는 '제주 청년 일자리 3종 시리즈'를 전국 처음으로 시행한다. 청년을 신규 채용한 기업에 월 50만∼70만원의 취업 지원금과 보금자리 지원금 30만원을 각각 지원하는 제도다. 청년 취업자가 월 10만원씩 내면 사업주와 도가 각각 15만원, 25만원을 지원하는 월 50만원짜리 5년 재형저축도 포함된다.    김현민 도 경제통상일자리국장은 "향후 5년간의 로드맵을 실행하기 위해 올해 제주형 노동정책 기본계획을 수립한다"며 "제주 일자리창출위원회와 전문가 등의 의견을 수렴해 만든 로드맵을 차질없이 수행해 일자리가 있어 행복한 제주를 만들어 나가겠다"고 다짐했다. khc@yna.co.kr▶기사제보 및 문의▶기자와 1:1 채팅  ▶평창동계올림픽 영상 공모전</t>
   </si>
   <si>
     <t>미래 4차 산업혁명 시대, 스타트업 육성을 도울 창업공간이 판교에 들어섰다.경기도와 경기도경제과학진흥원은 30일 '4차 산업혁명 주도 스타트업' 육성 거점 '경기벤처창업지원센터' 개소식을 갖고 운영에 들어갔다.이날 행사에는 박태환 도 기업지원과장, 조광주 도의회 경제과학기술위원회 위원, 한의녕 경기경제과학진흥원장, 이범석 경기창업보육센터협의회장, 허인정 아르콘 대표, 김용균 온코씨앤디 대표 등 총 30여명이 참석했다.성남시 이매동 KT분당빌딩 1층에 자리 잡은 '판교 벤처센터'는 신기술·지식집약형 선도기업을 만들 도내 예비·초기창업자에게 비즈니스 공간은 물론, 아이디어 발굴부터 시장개척까지 체계적으로 지원하는 역할을 맡았다.도는 판교테크노밸리 인근지역이 스타트업 입주수요 대비 공공 창업 인프라가 부족한 현실을 감안, 청년 일자리 창출 등 창업 활성화를 위해 이번 벤처센터를 조성했다.판교 벤처센터는 4차 산업혁명 시대에 걸맞은 특화분야 스타트업 발굴 및 글로벌 강소기업 육성을 목표로 안정적인 창업 및 비즈니스 활동을 펼칠 수 있는 1인, 4인 및 개방형 창업공간, 협업공간 등 인프라를 구축했다.이곳에서는 입주기업을 대상으로 비즈니스 모델 수립부터 비즈니스 액셀러레이팅, 투자, 글로벌 진출까지 성장단계별 지원프로그램을 제공한다. 또 기업의 다양한 기술·경영상 애로를 신속하게 해결할 수 있도록 창업·벤처, 자금(금융), 인사·노무, 마케팅·수출, 투자 등 분야별 전문가 일대일 멘토링, 기업역량강화 교육, 브라운백미팅을 상시 지원한다.입주 대상은 지식서비스(SW, ICT, 문화·콘텐츠), 바이오, 제조업 등 미래 성장동력 분야의 예비창업자 및 창업 3년 이내 중소·벤처기업으로, 기술성·사업성 등을 평가 후 입주를 결정하고 최대 2년까지 입주 및 지원 받을 수 있다. 개방형 창업공간의 경우, 예비창업자는 상시로 이용신청이 가능하다.박태환 기업지원과장은 “4차 산업혁명 시대를 주도하기 위해서는 꿈과 열정을 가진 창업가들의 도전이 뒷받침돼야 한다”며 “우수한 청년이 창업에 적극 참여하고, 벤처투자를 통해 성장하는 혁신 창업 시대 구현을 위해 경기도가 계속 지원할 계획”이라고 밝혔다.김정희기자 jhakim@etnews.com▶ 전자신문 데이터 인사이트 마케팅 컨퍼런스▶ 전자신문 바로가기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
@@ -6205,7 +6205,7 @@
         <v>673</v>
       </c>
       <c r="E119" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
       <c r="F119" t="s">
         <v>985</v>
@@ -6225,7 +6225,7 @@
         <v>673</v>
       </c>
       <c r="E120" t="s">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="F120" t="s">
         <v>986</v>
